--- a/REVER_DailyTracker_20200430.xlsx
+++ b/REVER_DailyTracker_20200430.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ADABCF-8131-49DE-80AC-D21D9F69EC14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABD4F9-E389-44FC-BC0E-EA6DE0F0ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -89,6 +89,12 @@
   <si>
     <t>Following the discussion, we have to decided to have few more tables for the CRM which is in Progress, and also decided to  remove four columns at CusteorDetails and also at CustomerRequestData tables based on your suggestion.</t>
   </si>
+  <si>
+    <t>MujiStore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +124,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -196,10 +218,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -235,9 +260,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{2512DF26-B669-4CBF-AE6E-9B7A27AFDDD5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -551,22 +586,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -587,7 +622,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -610,7 +645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -619,46 +654,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -678,18 +713,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -712,7 +747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -721,7 +756,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -730,46 +765,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -785,22 +820,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -823,16 +858,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>43951</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -841,46 +888,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -900,18 +947,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -943,7 +990,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -952,46 +999,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1011,18 +1058,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1054,7 +1101,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1063,46 +1110,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1122,18 +1169,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1156,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1177,7 +1224,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1186,46 +1233,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1245,18 +1292,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1288,7 +1335,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1297,46 +1344,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1356,18 +1403,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1399,7 +1446,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1408,46 +1455,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1467,18 +1514,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1501,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1510,7 +1557,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1519,46 +1566,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>
@@ -1578,18 +1625,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1612,7 +1659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1621,7 +1668,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1630,46 +1677,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>12</v>

--- a/REVER_DailyTracker_20200430.xlsx
+++ b/REVER_DailyTracker_20200430.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABD4F9-E389-44FC-BC0E-EA6DE0F0ABDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585398FF-A767-4610-8883-16A6DF3E327A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t xml:space="preserve">MujiStore - Authorization for Stores video </t>
+  </si>
+  <si>
+    <t>30-04-2020</t>
+  </si>
+  <si>
+    <t>B2C App</t>
+  </si>
+  <si>
+    <t>Invoice and mail attachment</t>
+  </si>
+  <si>
+    <t>credit info remove macro</t>
+  </si>
+  <si>
+    <t>Implemented in code</t>
+  </si>
+  <si>
+    <t>Still testing is pending</t>
   </si>
 </sst>
 </file>
@@ -224,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -269,6 +287,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,15 +609,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -622,7 +641,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -713,15 +732,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -820,19 +839,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -858,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -947,15 +966,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1054,19 +1073,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1094,21 +1113,43 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
     <row r="5" spans="1:7" s="4" customFormat="1"/>
@@ -1169,15 +1210,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1292,15 +1333,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1403,15 +1444,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1514,15 +1555,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1625,15 +1666,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
